--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>31.825501</v>
+        <v>42.409254</v>
       </c>
       <c r="H2">
-        <v>95.47650300000001</v>
+        <v>127.227762</v>
       </c>
       <c r="I2">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="J2">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N2">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q2">
-        <v>315.672657023359</v>
+        <v>61.198165073652</v>
       </c>
       <c r="R2">
-        <v>2841.053913210231</v>
+        <v>550.783485662868</v>
       </c>
       <c r="S2">
-        <v>0.09748107950400781</v>
+        <v>0.01778039395201189</v>
       </c>
       <c r="T2">
-        <v>0.09748107950400781</v>
+        <v>0.01778039395201188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>31.825501</v>
+        <v>42.409254</v>
       </c>
       <c r="H3">
-        <v>95.47650300000001</v>
+        <v>127.227762</v>
       </c>
       <c r="I3">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="J3">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N3">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q3">
-        <v>929.4164746190144</v>
+        <v>1238.499257054974</v>
       </c>
       <c r="R3">
-        <v>8364.748271571128</v>
+        <v>11146.49331349477</v>
       </c>
       <c r="S3">
-        <v>0.2870078204079822</v>
+        <v>0.3598311268517478</v>
       </c>
       <c r="T3">
-        <v>0.2870078204079822</v>
+        <v>0.3598311268517478</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>31.825501</v>
+        <v>42.409254</v>
       </c>
       <c r="H4">
-        <v>95.47650300000001</v>
+        <v>127.227762</v>
       </c>
       <c r="I4">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="J4">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N4">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q4">
-        <v>718.4873230193372</v>
+        <v>813.0109719601621</v>
       </c>
       <c r="R4">
-        <v>6466.385907174034</v>
+        <v>7317.098747641458</v>
       </c>
       <c r="S4">
-        <v>0.2218719876415746</v>
+        <v>0.2362106012714987</v>
       </c>
       <c r="T4">
-        <v>0.2218719876415746</v>
+        <v>0.2362106012714987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>14.538842</v>
       </c>
       <c r="I5">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="J5">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N5">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O5">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P5">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q5">
-        <v>48.06957460709265</v>
+        <v>6.993367160665332</v>
       </c>
       <c r="R5">
-        <v>432.6261714638339</v>
+        <v>62.94030444598799</v>
       </c>
       <c r="S5">
-        <v>0.0148440921940575</v>
+        <v>0.002031839075861889</v>
       </c>
       <c r="T5">
-        <v>0.0148440921940575</v>
+        <v>0.002031839075861889</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>14.538842</v>
       </c>
       <c r="I6">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="J6">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N6">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O6">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P6">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q6">
         <v>141.5284269123562</v>
@@ -818,10 +818,10 @@
         <v>1273.755842211206</v>
       </c>
       <c r="S6">
-        <v>0.04370458932367923</v>
+        <v>0.04111938949283347</v>
       </c>
       <c r="T6">
-        <v>0.04370458932367924</v>
+        <v>0.04111938949283347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>14.538842</v>
       </c>
       <c r="I7">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="J7">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N7">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O7">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P7">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q7">
-        <v>109.408842386918</v>
+        <v>92.90612268724199</v>
       </c>
       <c r="R7">
-        <v>984.6795814822621</v>
+        <v>836.1551041851779</v>
       </c>
       <c r="S7">
-        <v>0.03378592293589561</v>
+        <v>0.02699276130166715</v>
       </c>
       <c r="T7">
-        <v>0.03378592293589561</v>
+        <v>0.02699276130166714</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.81429</v>
+        <v>21.83492733333334</v>
       </c>
       <c r="H8">
-        <v>47.44287</v>
+        <v>65.50478200000001</v>
       </c>
       <c r="I8">
-        <v>0.301304507992803</v>
+        <v>0.3160338880543792</v>
       </c>
       <c r="J8">
-        <v>0.3013045079928031</v>
+        <v>0.3160338880543791</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N8">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O8">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P8">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q8">
-        <v>156.85971269511</v>
+        <v>31.50862986923867</v>
       </c>
       <c r="R8">
-        <v>1411.73741425599</v>
+        <v>283.577668823148</v>
       </c>
       <c r="S8">
-        <v>0.04843895657100371</v>
+        <v>0.009154455060686026</v>
       </c>
       <c r="T8">
-        <v>0.04843895657100372</v>
+        <v>0.009154455060686023</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.81429</v>
+        <v>21.83492733333334</v>
       </c>
       <c r="H9">
-        <v>47.44287</v>
+        <v>65.50478200000001</v>
       </c>
       <c r="I9">
-        <v>0.301304507992803</v>
+        <v>0.3160338880543792</v>
       </c>
       <c r="J9">
-        <v>0.3013045079928031</v>
+        <v>0.3160338880543791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N9">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O9">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P9">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q9">
-        <v>461.83284468649</v>
+        <v>637.6566133462919</v>
       </c>
       <c r="R9">
-        <v>4156.495602178409</v>
+        <v>5738.909520116627</v>
       </c>
       <c r="S9">
-        <v>0.1426159765465985</v>
+        <v>0.1852634924226529</v>
       </c>
       <c r="T9">
-        <v>0.1426159765465986</v>
+        <v>0.1852634924226529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.81429</v>
+        <v>21.83492733333334</v>
       </c>
       <c r="H10">
-        <v>47.44287</v>
+        <v>65.50478200000001</v>
       </c>
       <c r="I10">
-        <v>0.301304507992803</v>
+        <v>0.3160338880543792</v>
       </c>
       <c r="J10">
-        <v>0.3013045079928031</v>
+        <v>0.3160338880543791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N10">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O10">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P10">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q10">
-        <v>357.02083331073</v>
+        <v>418.5887234411821</v>
       </c>
       <c r="R10">
-        <v>3213.18749979657</v>
+        <v>3767.298510970638</v>
       </c>
       <c r="S10">
-        <v>0.1102495748752008</v>
+        <v>0.1216159405710402</v>
       </c>
       <c r="T10">
-        <v>0.1102495748752008</v>
+        <v>0.1216159405710402</v>
       </c>
     </row>
   </sheetData>
